--- a/Data/gsm8k_graded.xlsx
+++ b/Data/gsm8k_graded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BA6FD7-F622-4FB3-89A3-1D0D9D4E1E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E23641-AF22-4BE8-A7ED-C62FD7D4D39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1582" workbookViewId="0">
-      <selection activeCell="C1602" sqref="C1602"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/gsm8k_graded.xlsx
+++ b/Data/gsm8k_graded.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E23641-AF22-4BE8-A7ED-C62FD7D4D39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F52CC53-BAD0-426E-A2C6-F228C9605595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1601</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4796,7 +4796,7 @@
         <v>66</v>
       </c>
       <c r="C367">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -18374,7 +18374,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>